--- a/Tests/Validation/Wheat/data/FAR DMC W20-05.xlsx
+++ b/Tests/Validation/Wheat/data/FAR DMC W20-05.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Observed" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Tests/Validation/Wheat/data/FAR DMC W20-05.xlsx
+++ b/Tests/Validation/Wheat/data/FAR DMC W20-05.xlsx
@@ -478,12 +478,12 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn</t>
+          <t>Wheat.Leaf.StemPopulation</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Wheat.Structure.TotalStemPopn.se</t>
+          <t>Wheat.Leaf.StemPopulation.se</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR DMC W20-05.xlsx
+++ b/Tests/Validation/Wheat/data/FAR DMC W20-05.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>NDVI.Value</t>
         </is>
       </c>
       <c r="K1" s="2" t="inlineStr">
@@ -551,7 +552,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvTrojan</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>44026</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -584,7 +585,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvTrojan</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>44068</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -617,7 +618,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvTrojan</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>44082</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -650,7 +651,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvTrojan</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>44097</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -683,7 +684,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvTrojan</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>44110</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -716,7 +717,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvTrojan</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>44139</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -749,7 +750,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvTrojan</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>44152</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -786,7 +787,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvTrojan</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -847,7 +848,7 @@
           <t>FAR DMC W20-05GrazedNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>44026</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -880,7 +881,7 @@
           <t>FAR DMC W20-05GrazedNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>44068</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -913,7 +914,7 @@
           <t>FAR DMC W20-05GrazedNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>44082</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -946,7 +947,7 @@
           <t>FAR DMC W20-05GrazedNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>44097</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -979,7 +980,7 @@
           <t>FAR DMC W20-05GrazedNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>44110</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1012,7 +1013,7 @@
           <t>FAR DMC W20-05GrazedNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>44139</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1045,7 +1046,7 @@
           <t>FAR DMC W20-05GrazedNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>44152</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1082,7 +1083,7 @@
           <t>FAR DMC W20-05GrazedNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1143,7 +1144,7 @@
           <t>FAR DMC W20-05GrazedGS22CvTrojan</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>44026</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1176,7 +1177,7 @@
           <t>FAR DMC W20-05GrazedGS22CvTrojan</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>44068</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1209,7 +1210,7 @@
           <t>FAR DMC W20-05GrazedGS22CvTrojan</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>44082</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1242,7 +1243,7 @@
           <t>FAR DMC W20-05GrazedGS22CvTrojan</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>44097</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1275,7 +1276,7 @@
           <t>FAR DMC W20-05GrazedGS22CvTrojan</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>44110</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1308,7 +1309,7 @@
           <t>FAR DMC W20-05GrazedGS22CvTrojan</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>44139</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1341,7 +1342,7 @@
           <t>FAR DMC W20-05GrazedGS22CvTrojan</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>44152</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1378,7 +1379,7 @@
           <t>FAR DMC W20-05GrazedGS22CvTrojan</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1439,7 +1440,7 @@
           <t>FAR DMC W20-05GrazedGS30CvTrojan</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>44026</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1472,7 +1473,7 @@
           <t>FAR DMC W20-05GrazedGS30CvTrojan</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>44068</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1505,7 +1506,7 @@
           <t>FAR DMC W20-05GrazedGS30CvTrojan</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>44082</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1538,7 +1539,7 @@
           <t>FAR DMC W20-05GrazedGS30CvTrojan</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>44097</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1571,7 +1572,7 @@
           <t>FAR DMC W20-05GrazedGS30CvTrojan</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>44110</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1604,7 +1605,7 @@
           <t>FAR DMC W20-05GrazedGS30CvTrojan</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>44139</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1637,7 +1638,7 @@
           <t>FAR DMC W20-05GrazedGS30CvTrojan</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>44152</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1674,7 +1675,7 @@
           <t>FAR DMC W20-05GrazedGS30CvTrojan</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1735,7 +1736,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvAccroc</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>44026</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1768,7 +1769,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvAccroc</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>44068</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1801,7 +1802,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvAccroc</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>44082</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1834,7 +1835,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvAccroc</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>44097</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1867,7 +1868,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvAccroc</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>44110</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1900,7 +1901,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvAccroc</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>44139</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1933,7 +1934,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvAccroc</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>44152</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -1970,7 +1971,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvAccroc</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -2031,7 +2032,7 @@
           <t>FAR DMC W20-05GrazedNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>44026</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2064,7 +2065,7 @@
           <t>FAR DMC W20-05GrazedNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>44068</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2097,7 +2098,7 @@
           <t>FAR DMC W20-05GrazedNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>44082</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2130,7 +2131,7 @@
           <t>FAR DMC W20-05GrazedNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>44097</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2163,7 +2164,7 @@
           <t>FAR DMC W20-05GrazedNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>44110</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2196,7 +2197,7 @@
           <t>FAR DMC W20-05GrazedNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>44139</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2229,7 +2230,7 @@
           <t>FAR DMC W20-05GrazedNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>44152</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2266,7 +2267,7 @@
           <t>FAR DMC W20-05GrazedNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2327,7 +2328,7 @@
           <t>FAR DMC W20-05GrazedGS30CvAccroc</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>44026</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2360,7 +2361,7 @@
           <t>FAR DMC W20-05GrazedGS30CvAccroc</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>44068</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2393,7 +2394,7 @@
           <t>FAR DMC W20-05GrazedGS30CvAccroc</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>44082</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2426,7 +2427,7 @@
           <t>FAR DMC W20-05GrazedGS30CvAccroc</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>44097</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2459,7 +2460,7 @@
           <t>FAR DMC W20-05GrazedGS30CvAccroc</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>44110</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2492,7 +2493,7 @@
           <t>FAR DMC W20-05GrazedGS30CvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>44139</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2525,7 +2526,7 @@
           <t>FAR DMC W20-05GrazedGS30CvAccroc</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>44152</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -2562,7 +2563,7 @@
           <t>FAR DMC W20-05GrazedGS30CvAccroc</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -2623,7 +2624,7 @@
           <t>FAR DMC W20-05GrazedGS22CvAccroc</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>44026</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2656,7 +2657,7 @@
           <t>FAR DMC W20-05GrazedGS22CvAccroc</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>44068</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2689,7 +2690,7 @@
           <t>FAR DMC W20-05GrazedGS22CvAccroc</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>44082</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2722,7 +2723,7 @@
           <t>FAR DMC W20-05GrazedGS22CvAccroc</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>44097</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2755,7 +2756,7 @@
           <t>FAR DMC W20-05GrazedGS22CvAccroc</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>44110</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2788,7 +2789,7 @@
           <t>FAR DMC W20-05GrazedGS22CvAccroc</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>44139</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2821,7 +2822,7 @@
           <t>FAR DMC W20-05GrazedGS22CvAccroc</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>44152</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2858,7 +2859,7 @@
           <t>FAR DMC W20-05GrazedGS22CvAccroc</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C65" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR DMC W20-05.xlsx
+++ b/Tests/Validation/Wheat/data/FAR DMC W20-05.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,14 +58,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -487,7 +486,7 @@
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>NDVI.Value</t>
+          <t>NDVIModel.Script.NDVI</t>
         </is>
       </c>
       <c r="K1" s="2" t="inlineStr">
@@ -552,7 +551,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvTrojan</t>
         </is>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="3" t="n">
         <v>44026</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -585,7 +584,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvTrojan</t>
         </is>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="3" t="n">
         <v>44068</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -618,7 +617,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvTrojan</t>
         </is>
       </c>
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="3" t="n">
         <v>44082</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -651,7 +650,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvTrojan</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="3" t="n">
         <v>44097</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -684,7 +683,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvTrojan</t>
         </is>
       </c>
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="3" t="n">
         <v>44110</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -717,7 +716,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvTrojan</t>
         </is>
       </c>
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="3" t="n">
         <v>44139</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -750,7 +749,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvTrojan</t>
         </is>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="3" t="n">
         <v>44152</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -787,7 +786,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvTrojan</t>
         </is>
       </c>
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -848,7 +847,7 @@
           <t>FAR DMC W20-05GrazedNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="3" t="n">
         <v>44026</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -881,7 +880,7 @@
           <t>FAR DMC W20-05GrazedNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="3" t="n">
         <v>44068</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -914,7 +913,7 @@
           <t>FAR DMC W20-05GrazedNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="3" t="n">
         <v>44082</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -947,7 +946,7 @@
           <t>FAR DMC W20-05GrazedNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="3" t="n">
         <v>44097</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -980,7 +979,7 @@
           <t>FAR DMC W20-05GrazedNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="3" t="n">
         <v>44110</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1013,7 +1012,7 @@
           <t>FAR DMC W20-05GrazedNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="3" t="n">
         <v>44139</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1046,7 +1045,7 @@
           <t>FAR DMC W20-05GrazedNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="3" t="n">
         <v>44152</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1083,7 +1082,7 @@
           <t>FAR DMC W20-05GrazedNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1144,7 +1143,7 @@
           <t>FAR DMC W20-05GrazedGS22CvTrojan</t>
         </is>
       </c>
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="3" t="n">
         <v>44026</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1177,7 +1176,7 @@
           <t>FAR DMC W20-05GrazedGS22CvTrojan</t>
         </is>
       </c>
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="3" t="n">
         <v>44068</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1210,7 +1209,7 @@
           <t>FAR DMC W20-05GrazedGS22CvTrojan</t>
         </is>
       </c>
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="3" t="n">
         <v>44082</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1243,7 +1242,7 @@
           <t>FAR DMC W20-05GrazedGS22CvTrojan</t>
         </is>
       </c>
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="3" t="n">
         <v>44097</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1276,7 +1275,7 @@
           <t>FAR DMC W20-05GrazedGS22CvTrojan</t>
         </is>
       </c>
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="3" t="n">
         <v>44110</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1309,7 +1308,7 @@
           <t>FAR DMC W20-05GrazedGS22CvTrojan</t>
         </is>
       </c>
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="3" t="n">
         <v>44139</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1342,7 +1341,7 @@
           <t>FAR DMC W20-05GrazedGS22CvTrojan</t>
         </is>
       </c>
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="3" t="n">
         <v>44152</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1379,7 +1378,7 @@
           <t>FAR DMC W20-05GrazedGS22CvTrojan</t>
         </is>
       </c>
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1440,7 +1439,7 @@
           <t>FAR DMC W20-05GrazedGS30CvTrojan</t>
         </is>
       </c>
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="3" t="n">
         <v>44026</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1473,7 +1472,7 @@
           <t>FAR DMC W20-05GrazedGS30CvTrojan</t>
         </is>
       </c>
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="3" t="n">
         <v>44068</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1506,7 +1505,7 @@
           <t>FAR DMC W20-05GrazedGS30CvTrojan</t>
         </is>
       </c>
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="3" t="n">
         <v>44082</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1539,7 +1538,7 @@
           <t>FAR DMC W20-05GrazedGS30CvTrojan</t>
         </is>
       </c>
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="3" t="n">
         <v>44097</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1572,7 +1571,7 @@
           <t>FAR DMC W20-05GrazedGS30CvTrojan</t>
         </is>
       </c>
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="3" t="n">
         <v>44110</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1605,7 +1604,7 @@
           <t>FAR DMC W20-05GrazedGS30CvTrojan</t>
         </is>
       </c>
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="3" t="n">
         <v>44139</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1638,7 +1637,7 @@
           <t>FAR DMC W20-05GrazedGS30CvTrojan</t>
         </is>
       </c>
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="3" t="n">
         <v>44152</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1675,7 +1674,7 @@
           <t>FAR DMC W20-05GrazedGS30CvTrojan</t>
         </is>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1736,7 +1735,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvAccroc</t>
         </is>
       </c>
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="3" t="n">
         <v>44026</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1769,7 +1768,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvAccroc</t>
         </is>
       </c>
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="3" t="n">
         <v>44068</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1802,7 +1801,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvAccroc</t>
         </is>
       </c>
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="3" t="n">
         <v>44082</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1835,7 +1834,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvAccroc</t>
         </is>
       </c>
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="3" t="n">
         <v>44097</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1868,7 +1867,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvAccroc</t>
         </is>
       </c>
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="3" t="n">
         <v>44110</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1901,7 +1900,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvAccroc</t>
         </is>
       </c>
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="3" t="n">
         <v>44139</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1934,7 +1933,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvAccroc</t>
         </is>
       </c>
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="3" t="n">
         <v>44152</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -1971,7 +1970,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvAccroc</t>
         </is>
       </c>
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -2032,7 +2031,7 @@
           <t>FAR DMC W20-05GrazedNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="3" t="n">
         <v>44026</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2065,7 +2064,7 @@
           <t>FAR DMC W20-05GrazedNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="3" t="n">
         <v>44068</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2098,7 +2097,7 @@
           <t>FAR DMC W20-05GrazedNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="3" t="n">
         <v>44082</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2131,7 +2130,7 @@
           <t>FAR DMC W20-05GrazedNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="3" t="n">
         <v>44097</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2164,7 +2163,7 @@
           <t>FAR DMC W20-05GrazedNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="3" t="n">
         <v>44110</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2197,7 +2196,7 @@
           <t>FAR DMC W20-05GrazedNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="3" t="n">
         <v>44139</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2230,7 +2229,7 @@
           <t>FAR DMC W20-05GrazedNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="3" t="n">
         <v>44152</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2267,7 +2266,7 @@
           <t>FAR DMC W20-05GrazedNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2328,7 +2327,7 @@
           <t>FAR DMC W20-05GrazedGS30CvAccroc</t>
         </is>
       </c>
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="3" t="n">
         <v>44026</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2361,7 +2360,7 @@
           <t>FAR DMC W20-05GrazedGS30CvAccroc</t>
         </is>
       </c>
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="3" t="n">
         <v>44068</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2394,7 +2393,7 @@
           <t>FAR DMC W20-05GrazedGS30CvAccroc</t>
         </is>
       </c>
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="3" t="n">
         <v>44082</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2427,7 +2426,7 @@
           <t>FAR DMC W20-05GrazedGS30CvAccroc</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="3" t="n">
         <v>44097</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2460,7 +2459,7 @@
           <t>FAR DMC W20-05GrazedGS30CvAccroc</t>
         </is>
       </c>
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="3" t="n">
         <v>44110</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2493,7 +2492,7 @@
           <t>FAR DMC W20-05GrazedGS30CvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="3" t="n">
         <v>44139</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2526,7 +2525,7 @@
           <t>FAR DMC W20-05GrazedGS30CvAccroc</t>
         </is>
       </c>
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="3" t="n">
         <v>44152</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -2563,7 +2562,7 @@
           <t>FAR DMC W20-05GrazedGS30CvAccroc</t>
         </is>
       </c>
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -2624,7 +2623,7 @@
           <t>FAR DMC W20-05GrazedGS22CvAccroc</t>
         </is>
       </c>
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="3" t="n">
         <v>44026</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2657,7 +2656,7 @@
           <t>FAR DMC W20-05GrazedGS22CvAccroc</t>
         </is>
       </c>
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="3" t="n">
         <v>44068</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2690,7 +2689,7 @@
           <t>FAR DMC W20-05GrazedGS22CvAccroc</t>
         </is>
       </c>
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="3" t="n">
         <v>44082</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2723,7 +2722,7 @@
           <t>FAR DMC W20-05GrazedGS22CvAccroc</t>
         </is>
       </c>
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="3" t="n">
         <v>44097</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2756,7 +2755,7 @@
           <t>FAR DMC W20-05GrazedGS22CvAccroc</t>
         </is>
       </c>
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="3" t="n">
         <v>44110</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2789,7 +2788,7 @@
           <t>FAR DMC W20-05GrazedGS22CvAccroc</t>
         </is>
       </c>
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="3" t="n">
         <v>44139</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2822,7 +2821,7 @@
           <t>FAR DMC W20-05GrazedGS22CvAccroc</t>
         </is>
       </c>
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="3" t="n">
         <v>44152</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2859,7 +2858,7 @@
           <t>FAR DMC W20-05GrazedGS22CvAccroc</t>
         </is>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="3" t="n">
         <v>44181</v>
       </c>
       <c r="C65" t="inlineStr">

--- a/Tests/Validation/Wheat/data/FAR DMC W20-05.xlsx
+++ b/Tests/Validation/Wheat/data/FAR DMC W20-05.xlsx
@@ -17,8 +17,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="166" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -58,13 +58,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="J1" s="2" t="inlineStr">
         <is>
-          <t>NDVIModel.Script.NDVI</t>
+          <t>Spectral.NDVI</t>
         </is>
       </c>
       <c r="K1" s="2" t="inlineStr">
@@ -551,7 +552,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvTrojan</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="4" t="n">
         <v>44026</v>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -584,7 +585,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvTrojan</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="4" t="n">
         <v>44068</v>
       </c>
       <c r="C3" t="inlineStr"/>
@@ -617,7 +618,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvTrojan</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="4" t="n">
         <v>44082</v>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -650,7 +651,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvTrojan</t>
         </is>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="4" t="n">
         <v>44097</v>
       </c>
       <c r="C5" t="inlineStr"/>
@@ -683,7 +684,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvTrojan</t>
         </is>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="4" t="n">
         <v>44110</v>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -716,7 +717,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvTrojan</t>
         </is>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="4" t="n">
         <v>44139</v>
       </c>
       <c r="C7" t="inlineStr"/>
@@ -749,7 +750,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvTrojan</t>
         </is>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="4" t="n">
         <v>44152</v>
       </c>
       <c r="C8" t="inlineStr">
@@ -786,7 +787,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvTrojan</t>
         </is>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C9" t="inlineStr">
@@ -847,7 +848,7 @@
           <t>FAR DMC W20-05GrazedNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="4" t="n">
         <v>44026</v>
       </c>
       <c r="C10" t="inlineStr"/>
@@ -880,7 +881,7 @@
           <t>FAR DMC W20-05GrazedNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="4" t="n">
         <v>44068</v>
       </c>
       <c r="C11" t="inlineStr"/>
@@ -913,7 +914,7 @@
           <t>FAR DMC W20-05GrazedNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="4" t="n">
         <v>44082</v>
       </c>
       <c r="C12" t="inlineStr"/>
@@ -946,7 +947,7 @@
           <t>FAR DMC W20-05GrazedNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="4" t="n">
         <v>44097</v>
       </c>
       <c r="C13" t="inlineStr"/>
@@ -979,7 +980,7 @@
           <t>FAR DMC W20-05GrazedNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="4" t="n">
         <v>44110</v>
       </c>
       <c r="C14" t="inlineStr"/>
@@ -1012,7 +1013,7 @@
           <t>FAR DMC W20-05GrazedNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B15" s="3" t="n">
+      <c r="B15" s="4" t="n">
         <v>44139</v>
       </c>
       <c r="C15" t="inlineStr"/>
@@ -1045,7 +1046,7 @@
           <t>FAR DMC W20-05GrazedNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B16" s="3" t="n">
+      <c r="B16" s="4" t="n">
         <v>44152</v>
       </c>
       <c r="C16" t="inlineStr">
@@ -1082,7 +1083,7 @@
           <t>FAR DMC W20-05GrazedNoneCvTrojan</t>
         </is>
       </c>
-      <c r="B17" s="3" t="n">
+      <c r="B17" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C17" t="inlineStr">
@@ -1143,7 +1144,7 @@
           <t>FAR DMC W20-05GrazedGS22CvTrojan</t>
         </is>
       </c>
-      <c r="B18" s="3" t="n">
+      <c r="B18" s="4" t="n">
         <v>44026</v>
       </c>
       <c r="C18" t="inlineStr"/>
@@ -1176,7 +1177,7 @@
           <t>FAR DMC W20-05GrazedGS22CvTrojan</t>
         </is>
       </c>
-      <c r="B19" s="3" t="n">
+      <c r="B19" s="4" t="n">
         <v>44068</v>
       </c>
       <c r="C19" t="inlineStr"/>
@@ -1209,7 +1210,7 @@
           <t>FAR DMC W20-05GrazedGS22CvTrojan</t>
         </is>
       </c>
-      <c r="B20" s="3" t="n">
+      <c r="B20" s="4" t="n">
         <v>44082</v>
       </c>
       <c r="C20" t="inlineStr"/>
@@ -1242,7 +1243,7 @@
           <t>FAR DMC W20-05GrazedGS22CvTrojan</t>
         </is>
       </c>
-      <c r="B21" s="3" t="n">
+      <c r="B21" s="4" t="n">
         <v>44097</v>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1275,7 +1276,7 @@
           <t>FAR DMC W20-05GrazedGS22CvTrojan</t>
         </is>
       </c>
-      <c r="B22" s="3" t="n">
+      <c r="B22" s="4" t="n">
         <v>44110</v>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1308,7 +1309,7 @@
           <t>FAR DMC W20-05GrazedGS22CvTrojan</t>
         </is>
       </c>
-      <c r="B23" s="3" t="n">
+      <c r="B23" s="4" t="n">
         <v>44139</v>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1341,7 +1342,7 @@
           <t>FAR DMC W20-05GrazedGS22CvTrojan</t>
         </is>
       </c>
-      <c r="B24" s="3" t="n">
+      <c r="B24" s="4" t="n">
         <v>44152</v>
       </c>
       <c r="C24" t="inlineStr">
@@ -1378,7 +1379,7 @@
           <t>FAR DMC W20-05GrazedGS22CvTrojan</t>
         </is>
       </c>
-      <c r="B25" s="3" t="n">
+      <c r="B25" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C25" t="inlineStr">
@@ -1439,7 +1440,7 @@
           <t>FAR DMC W20-05GrazedGS30CvTrojan</t>
         </is>
       </c>
-      <c r="B26" s="3" t="n">
+      <c r="B26" s="4" t="n">
         <v>44026</v>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1472,7 +1473,7 @@
           <t>FAR DMC W20-05GrazedGS30CvTrojan</t>
         </is>
       </c>
-      <c r="B27" s="3" t="n">
+      <c r="B27" s="4" t="n">
         <v>44068</v>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1505,7 +1506,7 @@
           <t>FAR DMC W20-05GrazedGS30CvTrojan</t>
         </is>
       </c>
-      <c r="B28" s="3" t="n">
+      <c r="B28" s="4" t="n">
         <v>44082</v>
       </c>
       <c r="C28" t="inlineStr"/>
@@ -1538,7 +1539,7 @@
           <t>FAR DMC W20-05GrazedGS30CvTrojan</t>
         </is>
       </c>
-      <c r="B29" s="3" t="n">
+      <c r="B29" s="4" t="n">
         <v>44097</v>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1571,7 +1572,7 @@
           <t>FAR DMC W20-05GrazedGS30CvTrojan</t>
         </is>
       </c>
-      <c r="B30" s="3" t="n">
+      <c r="B30" s="4" t="n">
         <v>44110</v>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1604,7 +1605,7 @@
           <t>FAR DMC W20-05GrazedGS30CvTrojan</t>
         </is>
       </c>
-      <c r="B31" s="3" t="n">
+      <c r="B31" s="4" t="n">
         <v>44139</v>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1637,7 +1638,7 @@
           <t>FAR DMC W20-05GrazedGS30CvTrojan</t>
         </is>
       </c>
-      <c r="B32" s="3" t="n">
+      <c r="B32" s="4" t="n">
         <v>44152</v>
       </c>
       <c r="C32" t="inlineStr">
@@ -1674,7 +1675,7 @@
           <t>FAR DMC W20-05GrazedGS30CvTrojan</t>
         </is>
       </c>
-      <c r="B33" s="3" t="n">
+      <c r="B33" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C33" t="inlineStr">
@@ -1735,7 +1736,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvAccroc</t>
         </is>
       </c>
-      <c r="B34" s="3" t="n">
+      <c r="B34" s="4" t="n">
         <v>44026</v>
       </c>
       <c r="C34" t="inlineStr"/>
@@ -1768,7 +1769,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvAccroc</t>
         </is>
       </c>
-      <c r="B35" s="3" t="n">
+      <c r="B35" s="4" t="n">
         <v>44068</v>
       </c>
       <c r="C35" t="inlineStr"/>
@@ -1801,7 +1802,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvAccroc</t>
         </is>
       </c>
-      <c r="B36" s="3" t="n">
+      <c r="B36" s="4" t="n">
         <v>44082</v>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -1834,7 +1835,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvAccroc</t>
         </is>
       </c>
-      <c r="B37" s="3" t="n">
+      <c r="B37" s="4" t="n">
         <v>44097</v>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1867,7 +1868,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvAccroc</t>
         </is>
       </c>
-      <c r="B38" s="3" t="n">
+      <c r="B38" s="4" t="n">
         <v>44110</v>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -1900,7 +1901,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvAccroc</t>
         </is>
       </c>
-      <c r="B39" s="3" t="n">
+      <c r="B39" s="4" t="n">
         <v>44139</v>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -1933,7 +1934,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvAccroc</t>
         </is>
       </c>
-      <c r="B40" s="3" t="n">
+      <c r="B40" s="4" t="n">
         <v>44152</v>
       </c>
       <c r="C40" t="inlineStr">
@@ -1970,7 +1971,7 @@
           <t>FAR DMC W20-05GrazedGS32-33CvAccroc</t>
         </is>
       </c>
-      <c r="B41" s="3" t="n">
+      <c r="B41" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C41" t="inlineStr">
@@ -2031,7 +2032,7 @@
           <t>FAR DMC W20-05GrazedNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B42" s="3" t="n">
+      <c r="B42" s="4" t="n">
         <v>44026</v>
       </c>
       <c r="C42" t="inlineStr"/>
@@ -2064,7 +2065,7 @@
           <t>FAR DMC W20-05GrazedNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B43" s="3" t="n">
+      <c r="B43" s="4" t="n">
         <v>44068</v>
       </c>
       <c r="C43" t="inlineStr"/>
@@ -2097,7 +2098,7 @@
           <t>FAR DMC W20-05GrazedNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B44" s="3" t="n">
+      <c r="B44" s="4" t="n">
         <v>44082</v>
       </c>
       <c r="C44" t="inlineStr"/>
@@ -2130,7 +2131,7 @@
           <t>FAR DMC W20-05GrazedNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B45" s="3" t="n">
+      <c r="B45" s="4" t="n">
         <v>44097</v>
       </c>
       <c r="C45" t="inlineStr"/>
@@ -2163,7 +2164,7 @@
           <t>FAR DMC W20-05GrazedNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B46" s="3" t="n">
+      <c r="B46" s="4" t="n">
         <v>44110</v>
       </c>
       <c r="C46" t="inlineStr"/>
@@ -2196,7 +2197,7 @@
           <t>FAR DMC W20-05GrazedNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B47" s="3" t="n">
+      <c r="B47" s="4" t="n">
         <v>44139</v>
       </c>
       <c r="C47" t="inlineStr"/>
@@ -2229,7 +2230,7 @@
           <t>FAR DMC W20-05GrazedNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B48" s="3" t="n">
+      <c r="B48" s="4" t="n">
         <v>44152</v>
       </c>
       <c r="C48" t="inlineStr">
@@ -2266,7 +2267,7 @@
           <t>FAR DMC W20-05GrazedNoneCvAccroc</t>
         </is>
       </c>
-      <c r="B49" s="3" t="n">
+      <c r="B49" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C49" t="inlineStr">
@@ -2327,7 +2328,7 @@
           <t>FAR DMC W20-05GrazedGS30CvAccroc</t>
         </is>
       </c>
-      <c r="B50" s="3" t="n">
+      <c r="B50" s="4" t="n">
         <v>44026</v>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -2360,7 +2361,7 @@
           <t>FAR DMC W20-05GrazedGS30CvAccroc</t>
         </is>
       </c>
-      <c r="B51" s="3" t="n">
+      <c r="B51" s="4" t="n">
         <v>44068</v>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -2393,7 +2394,7 @@
           <t>FAR DMC W20-05GrazedGS30CvAccroc</t>
         </is>
       </c>
-      <c r="B52" s="3" t="n">
+      <c r="B52" s="4" t="n">
         <v>44082</v>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -2426,7 +2427,7 @@
           <t>FAR DMC W20-05GrazedGS30CvAccroc</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n">
+      <c r="B53" s="4" t="n">
         <v>44097</v>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -2459,7 +2460,7 @@
           <t>FAR DMC W20-05GrazedGS30CvAccroc</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n">
+      <c r="B54" s="4" t="n">
         <v>44110</v>
       </c>
       <c r="C54" t="inlineStr"/>
@@ -2492,7 +2493,7 @@
           <t>FAR DMC W20-05GrazedGS30CvAccroc</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n">
+      <c r="B55" s="4" t="n">
         <v>44139</v>
       </c>
       <c r="C55" t="inlineStr"/>
@@ -2525,7 +2526,7 @@
           <t>FAR DMC W20-05GrazedGS30CvAccroc</t>
         </is>
       </c>
-      <c r="B56" s="3" t="n">
+      <c r="B56" s="4" t="n">
         <v>44152</v>
       </c>
       <c r="C56" t="inlineStr">
@@ -2562,7 +2563,7 @@
           <t>FAR DMC W20-05GrazedGS30CvAccroc</t>
         </is>
       </c>
-      <c r="B57" s="3" t="n">
+      <c r="B57" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C57" t="inlineStr">
@@ -2623,7 +2624,7 @@
           <t>FAR DMC W20-05GrazedGS22CvAccroc</t>
         </is>
       </c>
-      <c r="B58" s="3" t="n">
+      <c r="B58" s="4" t="n">
         <v>44026</v>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -2656,7 +2657,7 @@
           <t>FAR DMC W20-05GrazedGS22CvAccroc</t>
         </is>
       </c>
-      <c r="B59" s="3" t="n">
+      <c r="B59" s="4" t="n">
         <v>44068</v>
       </c>
       <c r="C59" t="inlineStr"/>
@@ -2689,7 +2690,7 @@
           <t>FAR DMC W20-05GrazedGS22CvAccroc</t>
         </is>
       </c>
-      <c r="B60" s="3" t="n">
+      <c r="B60" s="4" t="n">
         <v>44082</v>
       </c>
       <c r="C60" t="inlineStr"/>
@@ -2722,7 +2723,7 @@
           <t>FAR DMC W20-05GrazedGS22CvAccroc</t>
         </is>
       </c>
-      <c r="B61" s="3" t="n">
+      <c r="B61" s="4" t="n">
         <v>44097</v>
       </c>
       <c r="C61" t="inlineStr"/>
@@ -2755,7 +2756,7 @@
           <t>FAR DMC W20-05GrazedGS22CvAccroc</t>
         </is>
       </c>
-      <c r="B62" s="3" t="n">
+      <c r="B62" s="4" t="n">
         <v>44110</v>
       </c>
       <c r="C62" t="inlineStr"/>
@@ -2788,7 +2789,7 @@
           <t>FAR DMC W20-05GrazedGS22CvAccroc</t>
         </is>
       </c>
-      <c r="B63" s="3" t="n">
+      <c r="B63" s="4" t="n">
         <v>44139</v>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -2821,7 +2822,7 @@
           <t>FAR DMC W20-05GrazedGS22CvAccroc</t>
         </is>
       </c>
-      <c r="B64" s="3" t="n">
+      <c r="B64" s="4" t="n">
         <v>44152</v>
       </c>
       <c r="C64" t="inlineStr">
@@ -2858,7 +2859,7 @@
           <t>FAR DMC W20-05GrazedGS22CvAccroc</t>
         </is>
       </c>
-      <c r="B65" s="3" t="n">
+      <c r="B65" s="4" t="n">
         <v>44181</v>
       </c>
       <c r="C65" t="inlineStr">
